--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed1/result_data_KNN.xlsx
@@ -505,10 +505,10 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.112</v>
+        <v>-7.455</v>
       </c>
       <c r="E4" t="n">
-        <v>12.724</v>
+        <v>13.421</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.666</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.73</v>
+        <v>-8.181999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>13.194</v>
+        <v>12.805</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.88</v>
+        <v>-7.703</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -573,10 +573,10 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.804</v>
+        <v>-7.779000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>13.256</v>
+        <v>13.486</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.260000000000002</v>
+        <v>-7.783999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>13.978</v>
+        <v>12.908</v>
       </c>
     </row>
     <row r="17">
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.866</v>
+        <v>-8.093</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.023999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>13.166</v>
+        <v>13.406</v>
       </c>
     </row>
     <row r="23">
